--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790331A-C69B-4182-A3C9-AA0549224BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B648B-F7C6-43F7-A377-8A0F926B73E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="343">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>записать видео 1г,2г,5л,10л</t>
   </si>
   <si>
-    <t>Проблема неверных позиций в QT</t>
-  </si>
-  <si>
     <t>Начать RL2</t>
   </si>
   <si>
@@ -1056,6 +1053,18 @@
   </si>
   <si>
     <t>реверсно-хеджевая грид-сетка</t>
+  </si>
+  <si>
+    <t>Сосредоточиться на своем счете мосбиржи</t>
+  </si>
+  <si>
+    <t>Тест через оконные функции (rolling)</t>
+  </si>
+  <si>
+    <t>Создать api quik</t>
+  </si>
+  <si>
+    <t>QuikTraider3</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1166,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1221,6 +1236,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,7 +1527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG4" sqref="AG4"/>
+      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,28 +1931,34 @@
       <c r="AA2" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AF2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AN2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AP2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1987,28 +2014,28 @@
       <c r="AA3" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AG3" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AM3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AN3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AP3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AQ3" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2058,28 +2085,28 @@
       <c r="Z4" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AF4" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AM4" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AO4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AM4" s="16" t="s">
+      <c r="AP4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AN4" s="16" t="s">
+      <c r="AQ4" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2120,25 +2147,25 @@
       <c r="T5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AM5" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AN5" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AO5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AM5" s="16" t="s">
+      <c r="AP5" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AQ5" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2185,25 +2212,25 @@
       <c r="AA6" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AJ6" s="14" t="s">
+      <c r="AM6" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AN6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AO6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AP6" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="AN6" s="13" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2247,25 +2274,25 @@
       <c r="T7" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AK7" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AJ7" s="14" t="s">
+      <c r="AM7" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AN7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AO7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AP7" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2306,25 +2333,25 @@
       <c r="T8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AK8" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="AJ8" s="14" t="s">
+      <c r="AM8" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="AK8" s="14" t="s">
+      <c r="AN8" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="AL8" s="13" t="s">
+      <c r="AO8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AM8" s="14" t="s">
+      <c r="AP8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AN8" s="15" t="s">
+      <c r="AQ8" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2365,25 +2392,25 @@
       <c r="T9" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AH9" s="17" t="s">
+      <c r="AK9" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AM9" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="AK9" s="14" t="s">
+      <c r="AN9" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AL9" s="14" t="s">
+      <c r="AO9" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AM9" s="13" t="s">
+      <c r="AP9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AN9" s="14" t="s">
+      <c r="AQ9" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2424,25 +2451,25 @@
       <c r="T10" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AM10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AN10" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AL10" s="14" t="s">
+      <c r="AO10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AM10" s="13" t="s">
+      <c r="AP10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AN10" s="13" t="s">
+      <c r="AQ10" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2483,25 +2510,23 @@
       <c r="T11" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AH11" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI11" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="AJ11" s="15" t="s">
+      <c r="AK11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AN11" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL11" s="14" t="s">
+      <c r="AO11" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="AM11" s="13" t="s">
+      <c r="AP11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN11" s="14" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2542,16 +2567,19 @@
       <c r="T12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="AJ12" s="16" t="s">
+      <c r="AK12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM12" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AK12" s="14" t="s">
+      <c r="AN12" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="AL12" s="15" t="s">
+      <c r="AO12" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AM12" s="14" t="s">
+      <c r="AP12" s="14" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2592,16 +2620,16 @@
       <c r="T13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AJ13" s="15" t="s">
+      <c r="AM13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AK13" s="14" t="s">
+      <c r="AN13" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="AL13" s="16" t="s">
+      <c r="AO13" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AM13" s="13" t="s">
+      <c r="AP13" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2642,13 +2670,13 @@
       <c r="T14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AJ14" s="15" t="s">
+      <c r="AM14" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AK14" s="16" t="s">
+      <c r="AN14" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="14" t="s">
+      <c r="AO14" s="14" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2689,13 +2717,13 @@
       <c r="T15" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AJ15" s="13" t="s">
+      <c r="AM15" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="AK15" s="15" t="s">
+      <c r="AN15" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="AL15" s="14" t="s">
+      <c r="AO15" s="14" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2727,7 +2755,7 @@
       <c r="T16" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AL16" s="17" t="s">
+      <c r="AO16" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3148,7 +3176,7 @@
   <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3170,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3178,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3194,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3202,12 +3230,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B648B-F7C6-43F7-A377-8A0F926B73E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF599B7-DCCF-433A-8286-E7673CB39D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,7 +1527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,6 +2017,9 @@
       <c r="AG3" s="4" t="s">
         <v>330</v>
       </c>
+      <c r="AH3" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="AK3" s="2" t="s">
         <v>317</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>279</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>313</v>
@@ -2510,8 +2513,8 @@
       <c r="T11" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AK11" s="2" t="s">
-        <v>338</v>
+      <c r="AK11" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="AL11" s="20"/>
       <c r="AM11" s="15" t="s">
@@ -2566,9 +2569,6 @@
       </c>
       <c r="T12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="AM12" s="16" t="s">
         <v>294</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0065D-3857-4EDD-9229-F670E76C19BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271C513-434A-4F5C-BE51-4EFBB25372B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="349">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1080,6 +1080,10 @@
   </si>
   <si>
     <t>grid_ranger (RL2)</t>
+  </si>
+  <si>
+    <t>Обработать time_mode == -2
+QT (RL1 и RL2)</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,6 +2239,9 @@
       </c>
       <c r="AA6" s="4" t="s">
         <v>326</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="AK6" s="2" t="s">
         <v>320</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC54D2-C989-414D-9400-664DC29CA1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADC6E0-48F2-4F1A-8C4B-403D8F73936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="362">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1123,13 +1123,19 @@
     <t>Парный Грид по DC 
 Лонгующий = [0, 1, 2]
 Шортящий = [-2, -1, 0]</t>
+  </si>
+  <si>
+    <t>Ползающий грид со стабильной сеткой. При падении самая низкая сетка является стартовой.</t>
+  </si>
+  <si>
+    <t>PWS1_GRIDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1150,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1239,7 +1251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1296,6 +1308,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,7 +1597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,6 +2238,9 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="AJ5" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="AK5" s="2" t="s">
         <v>323</v>
       </c>
@@ -2294,6 +2312,9 @@
       <c r="AH6" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="AI6" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="AK6" s="2" t="s">
         <v>320</v>
       </c>
@@ -2362,9 +2383,6 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AK7" s="17" t="s">
-        <v>355</v>
-      </c>
       <c r="AL7" s="2" t="s">
         <v>310</v>
       </c>
@@ -2482,6 +2500,9 @@
       </c>
       <c r="T9" s="4" t="s">
         <v>284</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="AK9" s="17" t="s">
         <v>325</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADC6E0-48F2-4F1A-8C4B-403D8F73936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECEC095-23AC-4EAD-A6DC-41947285D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="365">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1129,6 +1129,15 @@
   </si>
   <si>
     <t>PWS1_GRIDC</t>
+  </si>
+  <si>
+    <t>LWS2_SWIMGRID</t>
+  </si>
+  <si>
+    <t>Оптимизатор параметров для RL2</t>
+  </si>
+  <si>
+    <t>Дописать TestTrader (RL2) новые методы тестирования</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1319,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,9 +1604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomLeft" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,28 +2019,34 @@
       <c r="AH2" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="AI2" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="AJ2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AP2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AS2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2093,28 +2108,34 @@
       <c r="AH3" s="19" t="s">
         <v>342</v>
       </c>
+      <c r="AI3" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="AJ3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AO3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="AN3" s="16" t="s">
+      <c r="AP3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AP3" s="16" t="s">
+      <c r="AR3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AS3" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2170,28 +2191,28 @@
       <c r="AH4" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AO4" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AP4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="AO4" s="13" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AP4" s="16" t="s">
+      <c r="AR4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AQ4" s="16" t="s">
+      <c r="AS4" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2238,28 +2259,25 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AJ5" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AO5" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="AN5" s="15" t="s">
+      <c r="AP5" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AP5" s="16" t="s">
+      <c r="AR5" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="AQ5" s="14" t="s">
+      <c r="AS5" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2312,28 +2330,25 @@
       <c r="AH6" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AI6" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AM6" s="14" t="s">
+      <c r="AO6" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AP6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="AO6" s="13" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AR6" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="AS6" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2383,22 +2398,22 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AM7" s="14" t="s">
+      <c r="AO7" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AN7" s="15" t="s">
+      <c r="AP7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AR7" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AS7" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2442,25 +2457,28 @@
       <c r="AH8" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="AK8" s="17" t="s">
+      <c r="AI8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM8" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="AM8" s="14" t="s">
+      <c r="AO8" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="AN8" s="14" t="s">
+      <c r="AP8" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="AO8" s="13" t="s">
+      <c r="AQ8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AP8" s="14" t="s">
+      <c r="AR8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AQ8" s="15" t="s">
+      <c r="AS8" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2504,25 +2522,25 @@
       <c r="AH9" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AK9" s="17" t="s">
+      <c r="AM9" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AM9" s="13" t="s">
+      <c r="AO9" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="AN9" s="14" t="s">
+      <c r="AP9" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AO9" s="14" t="s">
+      <c r="AQ9" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AR9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ9" s="14" t="s">
+      <c r="AS9" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2563,25 +2581,25 @@
       <c r="T10" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AM10" s="15" t="s">
+      <c r="AO10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AP10" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AO10" s="14" t="s">
+      <c r="AQ10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AP10" s="13" t="s">
+      <c r="AR10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AQ10" s="13" t="s">
+      <c r="AS10" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2622,25 +2640,25 @@
       <c r="T11" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AK11" s="17" t="s">
+      <c r="AM11" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AM11" s="15" t="s">
+      <c r="AO11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AN11" s="15" t="s">
+      <c r="AP11" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AO11" s="14" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="AP11" s="13" t="s">
+      <c r="AR11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AQ11" s="14" t="s">
+      <c r="AS11" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2681,22 +2699,22 @@
       <c r="T12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="AK12" s="17" t="s">
+      <c r="AM12" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AM12" s="16" t="s">
+      <c r="AO12" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AN12" s="14" t="s">
+      <c r="AP12" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="AO12" s="15" t="s">
+      <c r="AQ12" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AP12" s="14" t="s">
+      <c r="AR12" s="14" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2737,19 +2755,19 @@
       <c r="T13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AM13" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="AM13" s="15" t="s">
+      <c r="AO13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AN13" s="14" t="s">
+      <c r="AP13" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="AO13" s="16" t="s">
+      <c r="AQ13" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AP13" s="13" t="s">
+      <c r="AR13" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2790,16 +2808,16 @@
       <c r="T14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AM14" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AM14" s="15" t="s">
+      <c r="AO14" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AN14" s="16" t="s">
+      <c r="AP14" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AO14" s="14" t="s">
+      <c r="AQ14" s="14" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2840,16 +2858,16 @@
       <c r="T15" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AM15" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AM15" s="13" t="s">
+      <c r="AO15" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="AN15" s="15" t="s">
+      <c r="AP15" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="AO15" s="14" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2881,7 +2899,7 @@
       <c r="T16" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AO16" s="17" t="s">
+      <c r="AQ16" s="17" t="s">
         <v>303</v>
       </c>
     </row>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECEC095-23AC-4EAD-A6DC-41947285D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCF223-6737-4D92-9CCB-7AC8C0E5B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="368">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1138,6 +1138,15 @@
   </si>
   <si>
     <t>Дописать TestTrader (RL2) новые методы тестирования</t>
+  </si>
+  <si>
+    <t>PWS1_PRGDC</t>
+  </si>
+  <si>
+    <t>LWS2_PSG</t>
+  </si>
+  <si>
+    <t>ST_mini парный (RL2)</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1614,8 @@
   <dimension ref="A1:DF51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK3" sqref="AK3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,6 +2407,9 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="AM7" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="AN7" s="2" t="s">
         <v>310</v>
       </c>
@@ -2522,6 +2534,9 @@
       <c r="AH9" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="AI9" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="AM9" s="17" t="s">
         <v>325</v>
       </c>
@@ -2580,6 +2595,9 @@
       </c>
       <c r="T10" s="4" t="s">
         <v>279</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="AM10" s="2" t="s">
         <v>338</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F7F37-8CE4-4369-810D-637F2A0BCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF341A8-84D8-49E5-ADBB-D4235FDE6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="381">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1150,6 +1150,42 @@
   </si>
   <si>
     <t>Парный полу ST_mini полу LTA_KROSH. Один торгует лонг, другой шорт. Только взависимости от RSI &gt; 50 меняют стратегии</t>
+  </si>
+  <si>
+    <t>LWS2_SWIMIGSON</t>
+  </si>
+  <si>
+    <t>LWS2_PSGSON</t>
+  </si>
+  <si>
+    <t>LWS3_NEXUS</t>
+  </si>
+  <si>
+    <t>LWS3_APEX</t>
+  </si>
+  <si>
+    <t>Добавить в тест комиссии ВТБ, посмотреть возможные проблемы</t>
+  </si>
+  <si>
+    <t>Дописать функции отрисовки графиков и сделок на них</t>
+  </si>
+  <si>
+    <t>Адаптивная плавающая сетка отностильно волатильности</t>
+  </si>
+  <si>
+    <t>Дописать риск-менеджмент в QuikTrader (RL2)</t>
+  </si>
+  <si>
+    <t>Дописать в QT(RL2) забывание ненайденной заявки со временем</t>
+  </si>
+  <si>
+    <t>ФИБО ГРИД</t>
+  </si>
+  <si>
+    <t>ST_mini (RL2)</t>
+  </si>
+  <si>
+    <t>плавающий грид с четким выходом на 1 лвле</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,10 +1364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
+      <selection pane="bottomLeft" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2071,7 @@
         <v>355</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>357</v>
@@ -2117,14 +2153,14 @@
       <c r="AG3" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="19" t="s">
         <v>360</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>358</v>
@@ -2200,11 +2236,14 @@
       <c r="AG4" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH4" s="4" t="s">
         <v>345</v>
       </c>
       <c r="AI4" s="4" t="s">
         <v>359</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>368</v>
@@ -2274,6 +2313,9 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="AJ5" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="AL5" s="2" t="s">
         <v>352</v>
       </c>
@@ -2348,6 +2390,9 @@
       <c r="AH6" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="AJ6" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="AL6" s="2" t="s">
         <v>353</v>
       </c>
@@ -2419,6 +2464,9 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="AJ7" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="AL7" s="2" t="s">
         <v>354</v>
       </c>
@@ -2487,6 +2535,12 @@
       <c r="AI8" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="AJ8" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL8" s="20" t="s">
+        <v>378</v>
+      </c>
       <c r="AM8" s="17" t="s">
         <v>356</v>
       </c>
@@ -2552,6 +2606,9 @@
       <c r="AI9" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="AL9" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="AM9" s="17" t="s">
         <v>325</v>
       </c>
@@ -2614,6 +2671,9 @@
       <c r="AI10" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="AL10" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="AM10" s="2" t="s">
         <v>338</v>
       </c>
@@ -2673,6 +2733,9 @@
       <c r="T11" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="AI11" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="AM11" s="17" t="s">
         <v>340</v>
       </c>
@@ -2732,6 +2795,9 @@
       <c r="T12" s="7" t="s">
         <v>289</v>
       </c>
+      <c r="AI12" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="AM12" s="17" t="s">
         <v>351</v>
       </c>
@@ -2788,6 +2854,9 @@
       <c r="T13" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="AI13" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="AO13" s="15" t="s">
         <v>258</v>
       </c>
@@ -2837,6 +2906,9 @@
       </c>
       <c r="T14" s="4" t="s">
         <v>291</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="AO14" s="15" t="s">
         <v>268</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF341A8-84D8-49E5-ADBB-D4235FDE6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BC122-A276-496E-B261-DCA62C4A2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,6 +1295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1308,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,6 +1374,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,7 +1663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK3" sqref="AK3"/>
+      <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2079,7 @@
       <c r="AI2" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>373</v>
       </c>
       <c r="AL2" s="2" t="s">
@@ -2159,7 +2168,7 @@
       <c r="AI3" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>377</v>
       </c>
       <c r="AL3" s="2" t="s">
@@ -2242,7 +2251,7 @@
       <c r="AI4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>363</v>
       </c>
       <c r="AL4" s="2" t="s">
@@ -2313,7 +2322,7 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>364</v>
       </c>
       <c r="AL5" s="2" t="s">

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BC122-A276-496E-B261-DCA62C4A2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0B400B-F02C-42E1-BD78-E4A469F4D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
+      <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,8 +2079,8 @@
       <c r="AI2" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>373</v>
+      <c r="AJ2" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>357</v>
@@ -2168,8 +2168,8 @@
       <c r="AI3" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>377</v>
+      <c r="AJ3" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>358</v>
@@ -2251,8 +2251,8 @@
       <c r="AI4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AJ4" s="4" t="s">
-        <v>363</v>
+      <c r="AJ4" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>368</v>
@@ -2322,8 +2322,8 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AJ5" s="21" t="s">
-        <v>364</v>
+      <c r="AI5" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="AL5" s="2" t="s">
         <v>352</v>
@@ -2399,8 +2399,8 @@
       <c r="AH6" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>374</v>
+      <c r="AI6" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="AL6" s="2" t="s">
         <v>353</v>
@@ -2473,8 +2473,8 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AJ7" s="2" t="s">
-        <v>375</v>
+      <c r="AI7" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>354</v>
@@ -2542,10 +2542,7 @@
         <v>350</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AL8" s="20" t="s">
         <v>378</v>
@@ -2612,9 +2609,6 @@
       <c r="AH9" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="AL9" s="2" t="s">
         <v>379</v>
       </c>
@@ -2677,9 +2671,6 @@
       <c r="T10" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="AL10" s="2" t="s">
         <v>380</v>
       </c>
@@ -2742,9 +2733,6 @@
       <c r="T11" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="AM11" s="17" t="s">
         <v>340</v>
       </c>
@@ -2805,7 +2793,7 @@
         <v>289</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AM12" s="17" t="s">
         <v>351</v>
@@ -2864,7 +2852,7 @@
         <v>290</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AO13" s="15" t="s">
         <v>258</v>
@@ -2917,7 +2905,7 @@
         <v>291</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AO14" s="15" t="s">
         <v>268</v>
@@ -2966,6 +2954,9 @@
       <c r="T15" s="7" t="s">
         <v>292</v>
       </c>
+      <c r="AI15" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="AO15" s="13" t="s">
         <v>281</v>
       </c>
@@ -3004,11 +2995,14 @@
       <c r="T16" s="4" t="s">
         <v>293</v>
       </c>
+      <c r="AI16" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="AQ16" s="17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3036,8 +3030,11 @@
       <c r="T17" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AI17" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3062,8 +3059,11 @@
       <c r="S18" s="7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AI18" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0B400B-F02C-42E1-BD78-E4A469F4D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D07D7-1F26-4E0F-A2AF-FB365EE47A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>плавающий грид с четким выходом на 1 лвле</t>
+  </si>
+  <si>
+    <t>Пофиксить проблемы child_test</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,12 +1298,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1314,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1374,9 +1371,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2079,8 +2073,11 @@
       <c r="AI2" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AJ2" s="21" t="s">
-        <v>374</v>
+      <c r="AJ2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>357</v>
@@ -2168,9 +2165,6 @@
       <c r="AI3" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="AL3" s="2" t="s">
         <v>358</v>
       </c>
@@ -2251,9 +2245,6 @@
       <c r="AI4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="AL4" s="2" t="s">
         <v>368</v>
       </c>
@@ -2569,7 +2560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:110" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:110" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2608,6 +2599,9 @@
       </c>
       <c r="AH9" s="4" t="s">
         <v>361</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>379</v>
@@ -2732,6 +2726,9 @@
       </c>
       <c r="T11" s="4" t="s">
         <v>288</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="AM11" s="17" t="s">
         <v>340</v>
